--- a/Excel/仕様書_002.xlsx
+++ b/Excel/仕様書_002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive - yoshida-g.ac.jp\デスクトップ\TEAM-A\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A06BDF-7F04-4BB9-ACE3-39ED0C123575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C1CEA-4CBB-4D2D-8076-9737036690ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{779806B9-2DE8-461E-BC68-3407A79A5EB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{779806B9-2DE8-461E-BC68-3407A79A5EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
   <si>
     <t>✕</t>
   </si>
@@ -910,6 +910,62 @@
     <t>BGMタイトル画面の</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>上から降ってくる</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タイトルロゴが降り終わったらゆっくり点滅</t>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>フレームとゲージの２枚ポリゴンで表現</t>
+    <rPh sb="9" eb="11">
+      <t>ニマイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>フレームとゲージの２枚ポリゴンで表現と</t>
+    <rPh sb="9" eb="11">
+      <t>ニマイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>フレームと赤ゲージとゲージの三枚ポリゴンで表現</t>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンマイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウゲン</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -1674,9 +1730,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1686,42 +1796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1732,51 +1809,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2163,64 +2219,64 @@
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="14"/>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="14"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B8E259-4077-4D67-967D-CDEA3FC14721}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2241,13 +2297,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,437 +2311,444 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="11" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="11" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="11" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="11" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="11" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="11" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="11" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="11" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="11" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="11" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="12" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="11" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
@@ -2697,20 +2760,13 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2719,568 +2775,691 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75BFFD1-BDC3-45DB-A329-4944D6033987}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="18" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="22" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="22" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="22" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="25" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="22" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="22" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="22" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="22" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="22" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="70">
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A59:E59"/>
@@ -3297,49 +3476,6 @@
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3350,1371 +3486,1499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D59AF6-39CA-46AA-9D47-59BDF3809315}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="28" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="28" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="28" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="28" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="28" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="28" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="28" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="30" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="28" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="28" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="28" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="30" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="28" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="28" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="28" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="28" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="28" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="28" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="28" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="28" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="28" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="28" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="28" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="28" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="28" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="28" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="28" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="30" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="28" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="28" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="28" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="30" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="28" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="28" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="28" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="28" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="28" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="33" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="28" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+    </row>
+    <row r="48" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="28" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="28" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="28" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="28" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="28" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="28" t="s">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="28" t="s">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="28" t="s">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="28" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="34" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="28" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="28" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="28" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="32" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A133:E133"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A18:E18"/>
@@ -4739,134 +5003,6 @@
     <mergeCell ref="A145:E145"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
